--- a/template/template技術者履歴書_kouyou.xlsx
+++ b/template/template技術者履歴書_kouyou.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{7E62C63B-3405-3641-85D7-0D4CA499DC90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{2A64A949-3FC7-6342-8602-AC6D4F3D038D}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{7E62C63B-3405-3641-85D7-0D4CA499DC90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{C4E9FBEF-26DB-5C4F-914F-4A08E4635C84}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1380" windowWidth="28780" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27320" yWindow="460" windowWidth="27320" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技術者経歴書(日本語)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>技　術　者　経　歴　書</t>
   </si>
@@ -168,14 +168,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>{{作成日}}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>{{生年月日}}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>会社名</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -243,10 +235,6 @@
   </si>
   <si>
     <t>仕事(留学)経験</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>{{就職開始年月}}</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -399,6 +387,26 @@
   </si>
   <si>
     <t>[ 国名：　{{仕事_留学_経験国}}　（　{{仕事_留学_経験開始年月}}　年間）]　</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{{#fe: list t.技術項目</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{{fd:(生年月日;yyyy-MM-dd)}}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{{fd:(就職開始年月;yyyy-MM)}}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>}}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{{作成日}}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1255,7 +1263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1563,6 +1571,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2962,7 +2979,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T2"/>
+      <selection activeCell="N3" sqref="N3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -2992,118 +3009,118 @@
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="20" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="20" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="136" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="137"/>
-      <c r="N3" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="20" customHeight="1">
       <c r="A4" s="40"/>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="128" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="129"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="132"/>
       <c r="K4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="129"/>
-      <c r="N4" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="141"/>
+        <v>34</v>
+      </c>
+      <c r="L4" s="131" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="132"/>
+      <c r="N4" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="144"/>
       <c r="U4" s="3"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -3111,11 +3128,11 @@
     <row r="5" spans="1:23" ht="20" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="81"/>
       <c r="D5" s="103" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="104"/>
       <c r="F5" s="104"/>
@@ -3127,9 +3144,9 @@
       <c r="L5" s="104"/>
       <c r="M5" s="104"/>
       <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
+      <c r="O5" s="105"/>
       <c r="P5" s="80" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="81"/>
       <c r="R5" s="5"/>
@@ -3137,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="1"/>
@@ -3146,31 +3163,31 @@
     <row r="6" spans="1:23" ht="20" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
+      <c r="D6" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
       <c r="P6" s="80" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="81"/>
       <c r="R6" s="5"/>
       <c r="S6" s="6"/>
       <c r="T6" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="1"/>
@@ -3183,7 +3200,7 @@
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="98" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="99"/>
       <c r="F7" s="99"/>
@@ -3193,21 +3210,21 @@
       <c r="J7" s="99"/>
       <c r="K7" s="99"/>
       <c r="L7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="106"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="109"/>
+        <v>29</v>
+      </c>
+      <c r="M7" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="112"/>
       <c r="R7" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="110"/>
+        <v>71</v>
+      </c>
+      <c r="S7" s="113"/>
       <c r="T7" s="8" t="s">
         <v>5</v>
       </c>
@@ -3218,7 +3235,7 @@
     <row r="8" spans="1:23" ht="19.5" customHeight="1">
       <c r="A8" s="40"/>
       <c r="B8" s="100" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="101"/>
       <c r="D8" s="101"/>
@@ -3245,14 +3262,14 @@
     <row r="9" spans="1:23" ht="19.5" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10">
         <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
@@ -3261,13 +3278,13 @@
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
       <c r="L9" s="31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M9" s="10">
         <v>2</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -3289,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
@@ -3304,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -3326,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
@@ -3341,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -3355,50 +3372,50 @@
     </row>
     <row r="12" spans="1:23" ht="19.5" customHeight="1">
       <c r="A12" s="40"/>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113" t="s">
+      <c r="M12" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="116"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="119"/>
       <c r="U12" s="3"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="19.5" customHeight="1">
       <c r="A13" s="40"/>
-      <c r="B13" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="118"/>
+      <c r="B13" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="121"/>
       <c r="D13" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
       <c r="G13" s="34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -3423,31 +3440,31 @@
     </row>
     <row r="14" spans="1:23" ht="19.5" customHeight="1">
       <c r="A14" s="40"/>
-      <c r="B14" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
+      <c r="B14" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
       <c r="L14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="123"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="125"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="128"/>
       <c r="U14" s="3"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -3466,7 +3483,7 @@
       <c r="I15" s="96"/>
       <c r="J15" s="96"/>
       <c r="K15" s="97"/>
-      <c r="L15" s="126" t="s">
+      <c r="L15" s="129" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="97"/>
@@ -3476,7 +3493,7 @@
       <c r="Q15" s="97"/>
       <c r="R15" s="97"/>
       <c r="S15" s="97"/>
-      <c r="T15" s="127"/>
+      <c r="T15" s="130"/>
       <c r="U15" s="3"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -3484,9 +3501,11 @@
     <row r="16" spans="1:23" ht="19.5" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D16" s="82"/>
       <c r="E16" s="87"/>
       <c r="F16" s="83"/>
@@ -3503,7 +3522,9 @@
       <c r="Q16" s="80"/>
       <c r="R16" s="81"/>
       <c r="S16" s="81"/>
-      <c r="T16" s="44"/>
+      <c r="T16" s="44" t="s">
+        <v>72</v>
+      </c>
       <c r="U16" s="48"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -3536,7 +3557,7 @@
     <row r="18" spans="1:23" ht="19.5" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="78" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="80"/>
@@ -3588,7 +3609,7 @@
     <row r="20" spans="1:23" ht="19.5" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="82"/>
@@ -3690,7 +3711,7 @@
     <row r="24" spans="1:23" ht="19.5" customHeight="1">
       <c r="A24" s="40"/>
       <c r="B24" s="84" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="82"/>
@@ -3742,7 +3763,7 @@
     <row r="26" spans="1:23" ht="19.5" customHeight="1">
       <c r="A26" s="40"/>
       <c r="B26" s="92" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="82"/>
@@ -3779,10 +3800,10 @@
       <c r="J27" s="74"/>
       <c r="K27" s="76"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="174"/>
-      <c r="O27" s="174"/>
-      <c r="P27" s="175"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="178"/>
       <c r="Q27" s="74"/>
       <c r="R27" s="75"/>
       <c r="S27" s="76"/>
@@ -3804,10 +3825,10 @@
       <c r="J28" s="80"/>
       <c r="K28" s="81"/>
       <c r="L28" s="46"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="146"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="149"/>
       <c r="Q28" s="58"/>
       <c r="R28" s="87"/>
       <c r="S28" s="83"/>
@@ -3818,24 +3839,24 @@
     </row>
     <row r="29" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
       <c r="A29" s="40"/>
-      <c r="B29" s="171"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="107"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="110"/>
       <c r="L29" s="47"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="107"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="110"/>
       <c r="T29" s="28"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -3843,81 +3864,81 @@
     </row>
     <row r="30" spans="1:23" ht="20" customHeight="1">
       <c r="A30" s="40"/>
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="151"/>
-      <c r="S30" s="151"/>
-      <c r="T30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="156"/>
       <c r="U30" s="3"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="19.5" customHeight="1">
       <c r="A31" s="40"/>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="157"/>
-      <c r="D31" s="162" t="s">
+      <c r="C31" s="160"/>
+      <c r="D31" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="164"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="167"/>
       <c r="U31" s="3"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="19.5" customHeight="1">
       <c r="A32" s="40"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="167"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="169"/>
+      <c r="Q32" s="169"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
+      <c r="T32" s="170"/>
       <c r="U32" s="3"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -3943,57 +3964,57 @@
       <c r="L33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="168" t="s">
+      <c r="M33" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="168" t="s">
+      <c r="N33" s="172"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="169"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="172"/>
       <c r="S33" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="T33" s="170"/>
+        <v>51</v>
+      </c>
+      <c r="T33" s="173"/>
       <c r="U33" s="3"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:24" ht="129" customHeight="1">
       <c r="A34" s="40"/>
-      <c r="B34" s="160" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="161"/>
+      <c r="B34" s="163" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="164"/>
       <c r="D34" s="60" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E34" s="61"/>
       <c r="F34" s="61"/>
       <c r="G34" s="61"/>
       <c r="H34" s="62"/>
       <c r="I34" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J34" s="61"/>
       <c r="K34" s="62"/>
       <c r="L34" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M34" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N34" s="64"/>
       <c r="O34" s="65"/>
       <c r="P34" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="155"/>
+        <v>56</v>
+      </c>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="158"/>
       <c r="S34" s="70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T34" s="71"/>
       <c r="U34" s="49"/>
@@ -4029,7 +4050,7 @@
     <row r="36" spans="1:24" ht="19.5" customHeight="1">
       <c r="A36" s="40"/>
       <c r="B36" s="57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" s="58"/>
       <c r="D36" s="58"/>
